--- a/projects/Module-1-Assesment.xlsx
+++ b/projects/Module-1-Assesment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\anson\Financial-Modelling\business-analytics-excel-coursera\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEB220C-617A-4D16-804B-F92EC3E8E60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDC1C05-416C-473E-B006-0C36F3C52518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{812DA7F0-001A-4A1F-892B-AA689683B384}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
